--- a/numb.xlsx
+++ b/numb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>maurmaks35@gmail.com</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>profiles/1686</t>
+  </si>
+  <si>
+    <t>profiles/6072</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,8 +586,12 @@
       <c r="N3"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="8">
+        <v>6072</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="20"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>

--- a/numb.xlsx
+++ b/numb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>maurmaks35@gmail.com</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>profiles/6072</t>
+  </si>
+  <si>
+    <t>profiles/1105</t>
+  </si>
+  <si>
+    <t>profiles/8365</t>
   </si>
 </sst>
 </file>
@@ -516,9 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,8 +609,12 @@
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="8">
+        <v>1105</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="20"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -616,7 +626,12 @@
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="6"/>
+      <c r="A6" s="9">
+        <v>8365</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:14">
